--- a/BDD/BDD.xlsx
+++ b/BDD/BDD.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\Fond-de-Placard\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Fond-de-Placard\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Ingrédients</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Utilisateurs</t>
   </si>
   <si>
-    <t>Prenom</t>
-  </si>
-  <si>
     <t>E-mail</t>
   </si>
   <si>
@@ -128,19 +125,19 @@
     <t>numero</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>nbr_personnes</t>
   </si>
   <si>
     <t>pseudo</t>
+  </si>
+  <si>
+    <t>image_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +218,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -356,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -389,114 +398,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +405,114 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,7 +531,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,51 +821,51 @@
   <dimension ref="C3:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="O4" s="30" t="s">
+      <c r="K4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="O4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="34"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -871,24 +884,24 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="18" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="55" t="s">
+      <c r="O7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1"/>
@@ -907,17 +920,15 @@
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
-        <v>13</v>
+      <c r="K8" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
-      <c r="O8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>36</v>
-      </c>
+      <c r="O8" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="8"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
@@ -933,20 +944,18 @@
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="57" t="s">
-        <v>14</v>
+      <c r="K9" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="65"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
@@ -961,7 +970,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
       <c r="O10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="3"/>
@@ -975,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="1"/>
@@ -983,7 +992,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="O11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="3"/>
@@ -994,7 +1003,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
@@ -1012,7 +1021,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
@@ -1104,91 +1113,91 @@
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E20" s="59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="61"/>
-      <c r="I20" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="62"/>
       <c r="F21" s="63"/>
       <c r="G21" s="64"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
-      <c r="I22" s="2" t="s">
-        <v>15</v>
+      <c r="I22" s="65" t="s">
+        <v>14</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E23" s="58" t="s">
-        <v>18</v>
+      <c r="E23" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
-      <c r="I23" s="57" t="s">
-        <v>22</v>
+      <c r="I23" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
       <c r="M23" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E24" s="57" t="s">
-        <v>19</v>
+      <c r="E24" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
       <c r="M24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="O24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
       <c r="I25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1200,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
@@ -1211,7 +1220,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1223,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
@@ -1234,7 +1243,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1246,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
@@ -1291,27 +1300,27 @@
     </row>
     <row r="33" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
+      <c r="G34" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="23"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="7:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="7" t="s">
-        <v>15</v>
+      <c r="G36" s="66" t="s">
+        <v>14</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
@@ -1324,9 +1333,7 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G39" s="56" t="s">
-        <v>22</v>
-      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9"/>
     </row>
@@ -1378,7 +1385,7 @@
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="G4:I5"/>
     <mergeCell ref="E20:G21"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BDD/BDD.xlsx
+++ b/BDD/BDD.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Fond-de-Placard\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\Fond-de-Placard\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Ingrédients</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Famille</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Durée</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Mdp</t>
   </si>
   <si>
-    <t>Favoris</t>
-  </si>
-  <si>
     <t>Utilisateurs_Id</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Etapes</t>
-  </si>
-  <si>
     <t>Ingrédient-Recettes</t>
   </si>
   <si>
@@ -83,48 +74,12 @@
     <t>Recettes_id</t>
   </si>
   <si>
-    <t>quantité</t>
-  </si>
-  <si>
-    <t>Volume métrique</t>
-  </si>
-  <si>
-    <t>recettes_id</t>
-  </si>
-  <si>
-    <t>descript</t>
-  </si>
-  <si>
-    <t>Marche à  suivre</t>
-  </si>
-  <si>
-    <t>"entrée" "plat" "dessert"</t>
-  </si>
-  <si>
-    <t>Recette :</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Id_recette</t>
-  </si>
-  <si>
-    <t>Marche à suivre</t>
-  </si>
-  <si>
-    <t>N°</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
     <t>nom</t>
   </si>
   <si>
-    <t>numero</t>
-  </si>
-  <si>
     <t>nbr_personnes</t>
   </si>
   <si>
@@ -132,12 +87,24 @@
   </si>
   <si>
     <t>image_id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>contenu</t>
+  </si>
+  <si>
+    <t>favoris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,138 +372,140 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,52 +789,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31"/>
-      <c r="O4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
+      <c r="K4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="O4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="40"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -921,12 +890,12 @@
       <c r="I8" s="9"/>
       <c r="J8" s="1"/>
       <c r="K8" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
-      <c r="O8" s="67" t="s">
-        <v>34</v>
+      <c r="O8" s="66" t="s">
+        <v>19</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="3"/>
@@ -939,38 +908,38 @@
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="67"/>
+      <c r="O9" s="66"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
       <c r="O10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="3"/>
@@ -980,19 +949,19 @@
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
       <c r="O11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="3"/>
@@ -1003,7 +972,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
@@ -1021,7 +990,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
@@ -1112,105 +1081,68 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="I20" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+      <c r="E20" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="I20" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="46"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="3:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3"/>
-      <c r="I22" s="65" t="s">
-        <v>14</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="3:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E23" s="22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
-      <c r="I23" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="K23" s="3"/>
-      <c r="M23" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E24" s="21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
-      <c r="M24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="13"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
-      <c r="I25" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
-      <c r="M25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>77</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
@@ -1219,21 +1151,6 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
-      <c r="M26" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>78</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
@@ -1242,21 +1159,6 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3"/>
-      <c r="M27" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>79</v>
-      </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="E28" s="2"/>
@@ -1300,27 +1202,27 @@
     </row>
     <row r="33" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+      <c r="G34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="7:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="66" t="s">
-        <v>14</v>
+      <c r="G36" s="23" t="s">
+        <v>12</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="9"/>
